--- a/Documents/CS320 Excel Works.xlsx
+++ b/Documents/CS320 Excel Works.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiru\Desktop\courses\cs320\CS320\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/metinkaraca/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0A5E46-BF40-4A01-A842-05B396F370B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5838767-5AEB-AD41-BC08-C78073F444E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" xr2:uid="{989A74A3-1140-104B-93D7-3DED2FDBFEEC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{989A74A3-1140-104B-93D7-3DED2FDBFEEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
   <si>
     <t>Risk</t>
   </si>
@@ -138,9 +139,6 @@
   </si>
   <si>
     <t>Tolerable</t>
-  </si>
-  <si>
-    <t>Can't save the datas to the database.</t>
   </si>
   <si>
     <t>Low</t>
@@ -200,11 +198,71 @@
     <t>Implementation - T4</t>
   </si>
   <si>
-    <t>Server computer is not able to use in class.</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Metin Karaca</t>
+  </si>
+  <si>
+    <t>Emre Beşik</t>
+  </si>
+  <si>
+    <t>Barış Tüdeş</t>
+  </si>
+  <si>
+    <t>Efe Soykan</t>
+  </si>
+  <si>
+    <t>Emir Ulurak</t>
+  </si>
+  <si>
+    <t>Etkin Kınık</t>
+  </si>
+  <si>
+    <t>Macbook Pro 14' 2021</t>
+  </si>
+  <si>
+    <t>M1 Pro</t>
+  </si>
+  <si>
+    <t>MacOS Monterey Version 12.6</t>
+  </si>
+  <si>
+    <t>M1 Pro GPU</t>
+  </si>
+  <si>
+    <t>512GB SSD</t>
+  </si>
+  <si>
+    <t>16GB RAM LPDDR5</t>
+  </si>
+  <si>
+    <t>Server computer cannot be able to use in class.</t>
+  </si>
+  <si>
+    <t>Database integration failure.</t>
   </si>
   <si>
     <t>The IP address may not be accessed stably
- on the Campus Internet.</t>
+on the campus's Internet.</t>
   </si>
 </sst>
 </file>
@@ -620,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -752,8 +810,35 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,813 +855,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="1582062192"/>
-        <c:axId val="1035138319"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1582062192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1035138319"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1035138319"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1582062192"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEC0839-32F8-82BB-AE51-74E30B19EF59}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1878,37 +1156,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF52882-E7DD-9B48-97F8-302DEAAB3676}">
   <dimension ref="C5:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="107" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="141" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C14" sqref="B13:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="56.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
     <col min="10" max="10" width="71" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D5" s="61" t="s">
+    <row r="5" spans="3:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="D5" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="I5" s="61" t="s">
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="I5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="3:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="3:17" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="3:17" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D7" s="31" t="s">
         <v>0</v>
       </c>
@@ -1938,10 +1216,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="3:17" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:17" ht="35" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C8" s="10"/>
       <c r="D8" s="39" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>29</v>
@@ -1950,14 +1228,14 @@
         <v>30</v>
       </c>
       <c r="I8" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8" s="17"/>
       <c r="L8" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M8" s="33">
         <v>7</v>
@@ -1970,10 +1248,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:17" ht="34" x14ac:dyDescent="0.2">
       <c r="C9" s="10"/>
       <c r="D9" s="38" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>29</v>
@@ -1982,14 +1260,14 @@
         <v>30</v>
       </c>
       <c r="I9" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="57" t="s">
         <v>41</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>42</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M9" s="20"/>
       <c r="N9" s="20">
@@ -2002,7 +1280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:17" ht="34" x14ac:dyDescent="0.2">
       <c r="C10" s="10"/>
       <c r="D10" s="40" t="s">
         <v>31</v>
@@ -2014,14 +1292,14 @@
         <v>33</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10" s="58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M10" s="22"/>
       <c r="N10" s="22">
@@ -2034,26 +1312,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="3:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:17" ht="34" x14ac:dyDescent="0.2">
       <c r="C11" s="10"/>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>34</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>35</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="60" t="s">
         <v>46</v>
-      </c>
-      <c r="J11" s="60" t="s">
-        <v>47</v>
       </c>
       <c r="K11" s="48"/>
       <c r="L11" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M11" s="24"/>
       <c r="N11" s="20">
@@ -2066,10 +1344,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C12" s="10"/>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>32</v>
@@ -2094,10 +1372,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:17" ht="17" x14ac:dyDescent="0.2">
       <c r="C13" s="10"/>
       <c r="D13" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="28" t="s">
         <v>32</v>
@@ -2122,10 +1400,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:17" ht="17" x14ac:dyDescent="0.2">
       <c r="C14" s="10"/>
       <c r="D14" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="28" t="s">
         <v>32</v>
@@ -2148,10 +1426,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:17" ht="17" x14ac:dyDescent="0.2">
       <c r="C15" s="10"/>
       <c r="D15" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="28" t="s">
         <v>32</v>
@@ -2173,10 +1451,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:17" ht="17" x14ac:dyDescent="0.2">
       <c r="C16" s="10"/>
       <c r="D16" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>32</v>
@@ -2198,10 +1476,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:15" ht="17" x14ac:dyDescent="0.2">
       <c r="C17" s="10"/>
       <c r="D17" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>32</v>
@@ -2223,10 +1501,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:15" ht="17" x14ac:dyDescent="0.2">
       <c r="C18" s="10"/>
       <c r="D18" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>32</v>
@@ -2238,18 +1516,18 @@
       <c r="J18" s="54"/>
       <c r="K18" s="51"/>
       <c r="L18" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="7"/>
       <c r="O18" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" ht="17" x14ac:dyDescent="0.2">
       <c r="C19" s="10"/>
       <c r="D19" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>32</v>
@@ -2265,10 +1543,10 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:15" ht="17" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
       <c r="D20" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="28" t="s">
         <v>32</v>
@@ -2284,10 +1562,10 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:15" ht="17" x14ac:dyDescent="0.2">
       <c r="C21" s="10"/>
       <c r="D21" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>32</v>
@@ -2303,10 +1581,67 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="10"/>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="3:15" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D33" s="3"/>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.2">
       <c r="K40" s="1"/>
     </row>
   </sheetData>
@@ -2315,6 +1650,129 @@
     <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920B99C4-8D8B-6045-A738-C8E56384EB30}">
+  <dimension ref="D4:J11"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="4:10" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D7" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+    </row>
+    <row r="8" spans="4:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="D8" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+    </row>
+    <row r="9" spans="4:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="D9" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D10" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+    </row>
+    <row r="11" spans="4:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="D11" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>